--- a/animalcount.xlsx
+++ b/animalcount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zltan/Library/Mobile Documents/com~apple~CloudDocs/databending/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DDDBCF-73C9-DC4A-A8E6-F6BB2E481E9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D40DA8-417A-2B43-B046-0B058274FE05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1360" windowWidth="62680" windowHeight="25300" xr2:uid="{993EF84F-4A72-5845-90C1-8621949C7F6F}"/>
   </bookViews>
@@ -16,48 +16,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$340</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$340</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$340</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$340</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$340</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$340</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$340</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$2:$A$340</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$C$2:$C$340</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$340</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$2:$B$340</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$340</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$340</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$340</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$2:$B$340</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$340</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$340</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$340</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$340</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$340</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v2.28" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v2.29" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$A$340</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t>animals</t>
   </si>
@@ -1096,9 +1073,6 @@
   </si>
   <si>
     <t>countAnimal</t>
-  </si>
-  <si>
-    <t>cul percentage</t>
   </si>
 </sst>
 </file>
@@ -1168,31 +1142,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Top 10 Animals</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1206,7 +1155,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1255,9 +1204,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$340</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>Dog</c:v>
                 </c:pt>
@@ -1287,16 +1236,1003 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Rabbit</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Llama</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Poodle</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pig</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Deer</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pony</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Chicken</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Hamster</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Coral</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Snake</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Fox</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Bear</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Ram</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Collie</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Duck</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Mink</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Beagle</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Rottweiler</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sheep</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Guinea pig</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Turtle</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Siberian</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Leopard</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Goose</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Tiger</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Goat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Goldfish</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Parrot</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Crab</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Cattle</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Guppy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Fly</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Tetra</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Shark</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Gecko</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Peacock</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Human</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Worm</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Elk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Ostrich</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Akita</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Mosquito</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Shrimp</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Zebra</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Rat</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Lobster</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Dachshund</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Bee</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Catfish</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Gar</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Mastiff</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Maltese</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Cichlid</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Buffalo</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Persian</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Wolf</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Quail</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Iguana</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Sponge</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Chinchilla</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Cobra</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Siamese</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Molly</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Eagle</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Lizard</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Seal</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Ferret</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Salmon</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Pointer</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Moose</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Butterfly</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Discus</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Octopus</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Crocodile</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Tortoise</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Alligator</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Pigeon</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Insect</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Elephant</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Owl</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Coyote</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Boar</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Alpaca</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Frog</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Camel</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Pheasant</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Rail</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Raccoon</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Donkey</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Mule</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Otter</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Tang</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Dove</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Hedgehog</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Puma</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>Mallard</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Beaver</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Spider</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Snail</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Macaw</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>Dolphin</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>Monkey</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Mole</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Squirrel</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Dalmatian</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>Caiman</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Chameleon</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>Trout</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Penguin</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Finch</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>Dinosaur</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>Ragdoll</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Robin</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Lynx</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>Scorpion</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Oyster</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Bat</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>Eel</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Antelope</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>Starfish</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Termite</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Bison</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>Crow</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Cockroach</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>Giraffe</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>Axolotl</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Pike</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Ass</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>Kiwi</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Greyhound</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Hawk</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Gerbil</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>Swan</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Jaguar</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>Kangaroo</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>Panther</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Bobcat</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>Barb</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>Reindeer</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Piranha</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Wasp</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>Kudu</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>Labradoodle</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>Emu</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>Jay</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>Yak</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>Hare</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>Ant</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>Rattlesnake</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Cheetah</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>Bloodhound</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>Beetle</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Swallow</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>Angelfish</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Himalayan</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Caribou</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>Stingray</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>Tiffany</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>Flamingo</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>Viper</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Clam</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Dingo</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>Skunk</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>Falcon</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Ox</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>Squid</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>Wrasse</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>Pekingese</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>Whale</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>Ruff</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>Burmese</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>Badger</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>Dodo</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>Whippet</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>Cougar</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>Toad</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>Havanese</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>Armadillo</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>Gorilla</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>Walrus</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>Hummingbird</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>Prawn</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>Koala</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>Crane</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>Pelican</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>Gazelle</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>Partridge</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>Seahorse</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>Possum</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>Opossum</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>Ladybird</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>Guinea fowl</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>Red deer</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>Salamander</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>Raven</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>Moth</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>Caterpillar</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>Porcupine</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>Hornet</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>Water buffalo</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>Grouse</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>Bombay</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>Newfoundland</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>Impala</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>Snowshoe</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>Meerkat</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>Locust</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>Sparrow</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>Vicuña</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>Herring</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>Heron</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>Magpie</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>Balinese</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>Cuttlefish</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>Chinook</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>Jellyfish</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>Peafowl</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>Manatee</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>Bongo</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>Barracuda</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>Wolverine</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>Barnacle</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>Dragonfly</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>Wren</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>Sea Urchin</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>Marten</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>Bandicoot</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>Mongoose</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>Budgerigar</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>Jackal</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>Woodpecker</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>Gull</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>Zebu</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>Bonobo</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>Birman</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>Sandpiper</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>Akbash</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>Komodo dragon</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>Chamois</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>Wallaby</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>Serval</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>Kingfisher</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>Wildebeest</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>Woodcock</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>Weasel</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>Wombat</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>Platypus</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>Ibis</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>Sand Dollar</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>Sea lion</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>Sloth</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>Stork</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>Ocelot</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>Abyssinian</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>Bullfrog</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>Liger</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>Rhinoceros</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>Warthog</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>Baboon</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>Fossa</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>Rook</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>Stoat</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>Toucan</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>Grasshopper</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>Goldfinch</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>Puffin</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>Mayfly</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>Echidna</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>Guanaco</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>Gopher</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>Lark</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>Loris</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>Binturong</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>Lemur</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>Nightingale</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>Dugong</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>Sardine</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>Starling</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>Quetzal</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>Anteater</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>Olm</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>Chipmunk</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>Mongrel</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>Eland</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>Curlew</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>Harrier</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>Gibbon</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>Chimpanzee</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>Cuscus</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>Flounder</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>Cormorant</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>Oryx</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>Goshawk</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>Hyena</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>Aardvark</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>Caracal</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>Affenpinscher</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>Prairie Dog</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>Javanese</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>Pika</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>Albatross</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>Narwhal</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>Tapir</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>Lionfish</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>Millipede</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>Centipede</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>Porpoise</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>Newt</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>Vulture</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>Tarsier</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>Cassowary</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>Hippopotamus</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>Lemming</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>Red panda</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>Okapi</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>Booby</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>Capybara</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>Dunker</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>Somali</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>Lapwing</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>Markhor</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>Indri</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>Dormouse</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>Avocet</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>Gnu</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$340</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="339"/>
                 <c:pt idx="0">
                   <c:v>66059</c:v>
                 </c:pt>
@@ -1326,13 +2262,1000 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6741</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6707</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6485</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4671</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4563</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4520</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4242</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3741</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3516</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2344</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1673</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8049-F742-BF20-AC4D33715BBA}"/>
+              <c16:uniqueId val="{00000000-838D-1143-A085-14907EB1CA4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,137 +3269,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1400724464"/>
-        <c:axId val="1350147392"/>
+        <c:axId val="610511808"/>
+        <c:axId val="610513488"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cul percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Dog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fish</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cat</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Horse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Chihuahua</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bird</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Bulldog</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Rabbit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14.837150487279521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.423702965004367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.659234502849102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.436408843129456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.022669334968448</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.615728605857228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46.13916047319681</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48.267063767471413</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50.140040922944912</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51.926769939828432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8049-F742-BF20-AC4D33715BBA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1404431504"/>
-        <c:axId val="1348373568"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="1400724464"/>
+        <c:axId val="610511808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +3301,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1519,7 +3316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350147392"/>
+        <c:crossAx val="610513488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +3324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1350147392"/>
+        <c:axId val="610513488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +3360,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1578,69 +3375,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400724464"/>
+        <c:crossAx val="610511808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1348373568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1404431504"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1404431504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1348373568"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1649,39 +3387,15 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1704,7 +3418,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1715,110 +3429,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{E133A9DF-935C-0A4D-B700-CB2E20C9910D}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>countAnimal</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A8616BE4-624A-524F-AC97-DD9DA283A10B}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>cul percentage</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{AF9A0097-C964-734A-AEE6-C84B67586F81}" formatIdx="1">
-          <cx:axisId val="2"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{2E882CDC-E42E-9649-8C45-8F7467A7A755}" formatIdx="3">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:title/>
-        <cx:majorTickMarks type="out"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title/>
-        <cx:majorTickMarks type="out"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,555 +3471,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2916,101 +3978,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7378F65-A012-4246-84E5-5DC9054AD169}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4749800" y="1778000"/>
-              <a:ext cx="25539700" cy="10325100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>65</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1D2A1F-C209-D042-A2BA-FCA1DDFF9FA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684399B3-973E-4544-BD06-1ABBB3CB3F97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +4006,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3328,4091 +4312,2732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905F506F-6A41-4241-9F28-C207E553D8ED}">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="AJ91" sqref="AJ91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>340</v>
       </c>
-      <c r="C1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>66059</v>
       </c>
-      <c r="C2">
-        <f ca="1">SUM(B$2:$C2)</f>
-        <v>14.837150487279521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>60491</v>
       </c>
-      <c r="C3">
-        <f ca="1">SUM(B$2:$C3)</f>
-        <v>28.423702965004367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>23310</v>
       </c>
-      <c r="C4">
-        <f ca="1">SUM(B$2:$C4)</f>
-        <v>33.659234502849102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>16817</v>
       </c>
-      <c r="C5">
-        <f ca="1">SUM(B$2:$C5)</f>
-        <v>37.436408843129456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>15967</v>
       </c>
-      <c r="C6">
-        <f ca="1">SUM(B$2:$C6)</f>
-        <v>41.022669334968448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>11545</v>
       </c>
-      <c r="C7">
-        <f ca="1">SUM(B$2:$C7)</f>
-        <v>43.615728605857228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>11235</v>
       </c>
-      <c r="C8">
-        <f ca="1">SUM(B$2:$C8)</f>
-        <v>46.13916047319681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>9474</v>
       </c>
-      <c r="C9">
-        <f ca="1">SUM(B$2:$C9)</f>
-        <v>48.267063767471413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>8339</v>
       </c>
-      <c r="C10">
-        <f ca="1">SUM(B$2:$C10)</f>
-        <v>50.140040922944912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>7955</v>
       </c>
-      <c r="C11">
-        <f ca="1">SUM(B$2:$C11)</f>
-        <v>51.926769939828432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>7703</v>
       </c>
-      <c r="C12">
-        <f ca="1">SUM(B$2:$C12)</f>
-        <v>53.65689861576228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>6741</v>
       </c>
-      <c r="C13">
-        <f ca="1">SUM(B$2:$C13)</f>
-        <v>55.170957736166031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>6707</v>
       </c>
-      <c r="C14">
-        <f ca="1">SUM(B$2:$C14)</f>
-        <v>56.677380302632123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>6485</v>
       </c>
-      <c r="C15">
-        <f ca="1">SUM(B$2:$C15)</f>
-        <v>58.133940663975885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>6361</v>
       </c>
-      <c r="C16">
-        <f ca="1">SUM(B$2:$C16)</f>
-        <v>59.562650063899966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>6132</v>
       </c>
-      <c r="C17">
-        <f ca="1">SUM(B$2:$C17)</f>
-        <v>60.93992502700867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5761</v>
       </c>
-      <c r="C18">
-        <f ca="1">SUM(B$2:$C18)</f>
-        <v>62.233871710385912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>4671</v>
       </c>
-      <c r="C19">
-        <f ca="1">SUM(B$2:$C19)</f>
-        <v>63.28299945870306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>4563</v>
       </c>
-      <c r="C20">
-        <f ca="1">SUM(B$2:$C20)</f>
-        <v>64.307869918041774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4520</v>
       </c>
-      <c r="C21">
-        <f ca="1">SUM(B$2:$C21)</f>
-        <v>65.323082382694636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>4374</v>
       </c>
-      <c r="C22">
-        <f ca="1">SUM(B$2:$C22)</f>
-        <v>66.305502586321097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>4242</v>
       </c>
-      <c r="C23">
-        <f ca="1">SUM(B$2:$C23)</f>
-        <v>67.258274992307264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>4059</v>
       </c>
-      <c r="C24">
-        <f ca="1">SUM(B$2:$C24)</f>
-        <v>68.169944769746635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3741</v>
       </c>
-      <c r="C25">
-        <f ca="1">SUM(B$2:$C25)</f>
-        <v>69.010190307416181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3698</v>
       </c>
-      <c r="C26">
-        <f ca="1">SUM(B$2:$C26)</f>
-        <v>69.840777850399874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>3516</v>
       </c>
-      <c r="C27">
-        <f ca="1">SUM(B$2:$C27)</f>
-        <v>70.63048736936436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>3202</v>
       </c>
-      <c r="C28">
-        <f ca="1">SUM(B$2:$C28)</f>
-        <v>71.34967106666933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>3127</v>
       </c>
-      <c r="C29">
-        <f ca="1">SUM(B$2:$C29)</f>
-        <v>72.052009424405952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>3126</v>
       </c>
-      <c r="C30">
-        <f ca="1">SUM(B$2:$C30)</f>
-        <v>72.754123177614986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>2973</v>
       </c>
-      <c r="C31">
-        <f ca="1">SUM(B$2:$C31)</f>
-        <v>73.421872438104572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>2646</v>
       </c>
-      <c r="C32">
-        <f ca="1">SUM(B$2:$C32)</f>
-        <v>74.016176018076138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>2511</v>
       </c>
-      <c r="C33">
-        <f ca="1">SUM(B$2:$C33)</f>
-        <v>74.580157986824659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>2479</v>
       </c>
-      <c r="C34">
-        <f ca="1">SUM(B$2:$C34)</f>
-        <v>75.136952610690685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>2401</v>
       </c>
-      <c r="C35">
-        <f ca="1">SUM(B$2:$C35)</f>
-        <v>75.676228081405625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>2388</v>
       </c>
-      <c r="C36">
-        <f ca="1">SUM(B$2:$C36)</f>
-        <v>76.212583693262047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>2382</v>
       </c>
-      <c r="C37">
-        <f ca="1">SUM(B$2:$C37)</f>
-        <v>76.747591677952997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>2344</v>
       </c>
-      <c r="C38">
-        <f ca="1">SUM(B$2:$C38)</f>
-        <v>77.274064690595992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>2160</v>
       </c>
-      <c r="C39">
-        <f ca="1">SUM(B$2:$C39)</f>
-        <v>77.759210470164618</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>2077</v>
       </c>
-      <c r="C40">
-        <f ca="1">SUM(B$2:$C40)</f>
-        <v>78.22571407394426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1957</v>
       </c>
-      <c r="C41">
-        <f ca="1">SUM(B$2:$C41)</f>
-        <v>78.66526513441454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1953</v>
       </c>
-      <c r="C42">
-        <f ca="1">SUM(B$2:$C42)</f>
-        <v>79.103917776774509</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>1798</v>
       </c>
-      <c r="C43">
-        <f ca="1">SUM(B$2:$C43)</f>
-        <v>79.507756717359868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1749</v>
       </c>
-      <c r="C44">
-        <f ca="1">SUM(B$2:$C44)</f>
-        <v>79.900590036093902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1704</v>
       </c>
-      <c r="C45">
-        <f ca="1">SUM(B$2:$C45)</f>
-        <v>80.283316151086922</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1674</v>
       </c>
-      <c r="C46">
-        <f ca="1">SUM(B$2:$C46)</f>
-        <v>80.659304130252607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1673</v>
       </c>
-      <c r="C47">
-        <f ca="1">SUM(B$2:$C47)</f>
-        <v>81.035067504890719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1641</v>
       </c>
-      <c r="C48">
-        <f ca="1">SUM(B$2:$C48)</f>
-        <v>81.403643534646321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1610</v>
       </c>
-      <c r="C49">
-        <f ca="1">SUM(B$2:$C49)</f>
-        <v>81.765256824047015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1569</v>
       </c>
-      <c r="C50">
-        <f ca="1">SUM(B$2:$C50)</f>
-        <v>82.117661327817004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1532</v>
       </c>
-      <c r="C51">
-        <f ca="1">SUM(B$2:$C51)</f>
-        <v>82.461755464066599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1526</v>
       </c>
-      <c r="C52">
-        <f ca="1">SUM(B$2:$C52)</f>
-        <v>82.804501973150735</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1512</v>
       </c>
-      <c r="C53">
-        <f ca="1">SUM(B$2:$C53)</f>
-        <v>83.144104018848779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1478</v>
       </c>
-      <c r="C54">
-        <f ca="1">SUM(B$2:$C54)</f>
-        <v>83.476069510609165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>1462</v>
       </c>
-      <c r="C55">
-        <f ca="1">SUM(B$2:$C55)</f>
-        <v>83.804441329928295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>1431</v>
       </c>
-      <c r="C56">
-        <f ca="1">SUM(B$2:$C56)</f>
-        <v>84.125850408892504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>1418</v>
       </c>
-      <c r="C57">
-        <f ca="1">SUM(B$2:$C57)</f>
-        <v>84.444339628998208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1418</v>
       </c>
-      <c r="C58">
-        <f ca="1">SUM(B$2:$C58)</f>
-        <v>84.762828849103911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1396</v>
       </c>
-      <c r="C59">
-        <f ca="1">SUM(B$2:$C59)</f>
-        <v>85.076376769602888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1310</v>
       </c>
-      <c r="C60">
-        <f ca="1">SUM(B$2:$C60)</f>
-        <v>85.370608700730159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1304</v>
       </c>
-      <c r="C61">
-        <f ca="1">SUM(B$2:$C61)</f>
-        <v>85.663493004691958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>1283</v>
       </c>
-      <c r="C62">
-        <f ca="1">SUM(B$2:$C62)</f>
-        <v>85.951660613574617</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>1267</v>
       </c>
-      <c r="C63">
-        <f ca="1">SUM(B$2:$C63)</f>
-        <v>86.236234550016022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>1199</v>
       </c>
-      <c r="C64">
-        <f ca="1">SUM(B$2:$C64)</f>
-        <v>86.505535378582124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>1192</v>
       </c>
-      <c r="C65">
-        <f ca="1">SUM(B$2:$C65)</f>
-        <v>86.77326397545518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>1181</v>
       </c>
-      <c r="C66">
-        <f ca="1">SUM(B$2:$C66)</f>
-        <v>87.038521922524879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>1181</v>
       </c>
-      <c r="C67">
-        <f ca="1">SUM(B$2:$C67)</f>
-        <v>87.303779869594578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>1143</v>
       </c>
-      <c r="C68">
-        <f ca="1">SUM(B$2:$C68)</f>
-        <v>87.560502844616309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>1102</v>
       </c>
-      <c r="C69">
-        <f ca="1">SUM(B$2:$C69)</f>
-        <v>87.808017034007335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>1096</v>
       </c>
-      <c r="C70">
-        <f ca="1">SUM(B$2:$C70)</f>
-        <v>88.054183596232903</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>1089</v>
       </c>
-      <c r="C71">
-        <f ca="1">SUM(B$2:$C71)</f>
-        <v>88.298777926765425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1080</v>
       </c>
-      <c r="C72">
-        <f ca="1">SUM(B$2:$C72)</f>
-        <v>88.541350816549738</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>1058</v>
       </c>
-      <c r="C73">
-        <f ca="1">SUM(B$2:$C73)</f>
-        <v>88.778982406727337</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>1051</v>
       </c>
-      <c r="C74">
-        <f ca="1">SUM(B$2:$C74)</f>
-        <v>89.01504176521189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>1022</v>
       </c>
-      <c r="C75">
-        <f ca="1">SUM(B$2:$C75)</f>
-        <v>89.24458759239667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>1021</v>
       </c>
-      <c r="C76">
-        <f ca="1">SUM(B$2:$C76)</f>
-        <v>89.473908815053875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>1004</v>
       </c>
-      <c r="C77">
-        <f ca="1">SUM(B$2:$C77)</f>
-        <v>89.699411760742251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>927</v>
       </c>
-      <c r="C78">
-        <f ca="1">SUM(B$2:$C78)</f>
-        <v>89.907620157807116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>908</v>
       </c>
-      <c r="C79">
-        <f ca="1">SUM(B$2:$C79)</f>
-        <v>90.111561068848005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>843</v>
       </c>
-      <c r="C80">
-        <f ca="1">SUM(B$2:$C80)</f>
-        <v>90.300902685596313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>839</v>
       </c>
-      <c r="C81">
-        <f ca="1">SUM(B$2:$C81)</f>
-        <v>90.489345884234311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>828</v>
       </c>
-      <c r="C82">
-        <f ca="1">SUM(B$2:$C82)</f>
-        <v>90.675318433068952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>828</v>
       </c>
-      <c r="C83">
-        <f ca="1">SUM(B$2:$C83)</f>
-        <v>90.861290981903593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>806</v>
       </c>
-      <c r="C84">
-        <f ca="1">SUM(B$2:$C84)</f>
-        <v>91.042322231131521</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>787</v>
       </c>
-      <c r="C85">
-        <f ca="1">SUM(B$2:$C85)</f>
-        <v>91.219085994335458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>782</v>
       </c>
-      <c r="C86">
-        <f ca="1">SUM(B$2:$C86)</f>
-        <v>91.394726734901511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>755</v>
       </c>
-      <c r="C87">
-        <f ca="1">SUM(B$2:$C87)</f>
-        <v>91.564303153222951</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>711</v>
       </c>
-      <c r="C88">
-        <f ca="1">SUM(B$2:$C88)</f>
-        <v>91.723996972330951</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>670</v>
       </c>
-      <c r="C89">
-        <f ca="1">SUM(B$2:$C89)</f>
-        <v>91.874482005808261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>659</v>
       </c>
-      <c r="C90">
-        <f ca="1">SUM(B$2:$C90)</f>
-        <v>92.022496389482214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>658</v>
       </c>
-      <c r="C91">
-        <f ca="1">SUM(B$2:$C91)</f>
-        <v>92.170286168628579</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>654</v>
       </c>
-      <c r="C92">
-        <f ca="1">SUM(B$2:$C92)</f>
-        <v>92.317177529664633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>650</v>
       </c>
-      <c r="C93">
-        <f ca="1">SUM(B$2:$C93)</f>
-        <v>92.463170472590377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>643</v>
       </c>
-      <c r="C94">
-        <f ca="1">SUM(B$2:$C94)</f>
-        <v>92.607591183823075</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>628</v>
       </c>
-      <c r="C95">
-        <f ca="1">SUM(B$2:$C95)</f>
-        <v>92.748642827142106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>620</v>
       </c>
-      <c r="C96">
-        <f ca="1">SUM(B$2:$C96)</f>
-        <v>92.887897634240502</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>591</v>
       </c>
-      <c r="C97">
-        <f ca="1">SUM(B$2:$C97)</f>
-        <v>93.020638910039139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>589</v>
       </c>
-      <c r="C98">
-        <f ca="1">SUM(B$2:$C98)</f>
-        <v>93.152930976782613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>583</v>
       </c>
-      <c r="C99">
-        <f ca="1">SUM(B$2:$C99)</f>
-        <v>93.28387541636063</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>580</v>
       </c>
-      <c r="C100">
-        <f ca="1">SUM(B$2:$C100)</f>
-        <v>93.41414604235591</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>562</v>
       </c>
-      <c r="C101">
-        <f ca="1">SUM(B$2:$C101)</f>
-        <v>93.540373786854786</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>552</v>
       </c>
-      <c r="C102">
-        <f ca="1">SUM(B$2:$C102)</f>
-        <v>93.664355486077881</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>540</v>
       </c>
-      <c r="C103">
-        <f ca="1">SUM(B$2:$C103)</f>
-        <v>93.78564193097003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>527</v>
       </c>
-      <c r="C104">
-        <f ca="1">SUM(B$2:$C104)</f>
-        <v>93.904008517003675</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>518</v>
       </c>
-      <c r="C105">
-        <f ca="1">SUM(B$2:$C105)</f>
-        <v>94.020353662289111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>508</v>
       </c>
-      <c r="C106">
-        <f ca="1">SUM(B$2:$C106)</f>
-        <v>94.134452762298764</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>507</v>
       </c>
-      <c r="C107">
-        <f ca="1">SUM(B$2:$C107)</f>
-        <v>94.248327257780844</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>489</v>
       </c>
-      <c r="C108">
-        <f ca="1">SUM(B$2:$C108)</f>
-        <v>94.35815887176652</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>482</v>
       </c>
-      <c r="C109">
-        <f ca="1">SUM(B$2:$C109)</f>
-        <v>94.46641825405915</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>468</v>
       </c>
-      <c r="C110">
-        <f ca="1">SUM(B$2:$C110)</f>
-        <v>94.571533172965687</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>467</v>
       </c>
-      <c r="C111">
-        <f ca="1">SUM(B$2:$C111)</f>
-        <v>94.67642348734465</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>453</v>
       </c>
-      <c r="C112">
-        <f ca="1">SUM(B$2:$C112)</f>
-        <v>94.77816933833752</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>444</v>
       </c>
-      <c r="C113">
-        <f ca="1">SUM(B$2:$C113)</f>
-        <v>94.877893748582181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>442</v>
       </c>
-      <c r="C114">
-        <f ca="1">SUM(B$2:$C114)</f>
-        <v>94.977168949771681</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>425</v>
       </c>
-      <c r="C115">
-        <f ca="1">SUM(B$2:$C115)</f>
-        <v>95.072625873992365</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>418</v>
       </c>
-      <c r="C116">
-        <f ca="1">SUM(B$2:$C116)</f>
-        <v>95.166510566520003</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>418</v>
       </c>
-      <c r="C117">
-        <f ca="1">SUM(B$2:$C117)</f>
-        <v>95.260395259047641</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>402</v>
       </c>
-      <c r="C118">
-        <f ca="1">SUM(B$2:$C118)</f>
-        <v>95.350686279134024</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>385</v>
       </c>
-      <c r="C119">
-        <f ca="1">SUM(B$2:$C119)</f>
-        <v>95.437159022251578</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>380</v>
       </c>
-      <c r="C120">
-        <f ca="1">SUM(B$2:$C120)</f>
-        <v>95.522508742731247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>379</v>
       </c>
-      <c r="C121">
-        <f ca="1">SUM(B$2:$C121)</f>
-        <v>95.607633858683329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>378</v>
       </c>
-      <c r="C122">
-        <f ca="1">SUM(B$2:$C122)</f>
-        <v>95.692534370107836</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>352</v>
       </c>
-      <c r="C123">
-        <f ca="1">SUM(B$2:$C123)</f>
-        <v>95.77159516381532</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>350</v>
       </c>
-      <c r="C124">
-        <f ca="1">SUM(B$2:$C124)</f>
-        <v>95.850206748467642</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>348</v>
       </c>
-      <c r="C125">
-        <f ca="1">SUM(B$2:$C125)</f>
-        <v>95.928369124064815</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>344</v>
       </c>
-      <c r="C126">
-        <f ca="1">SUM(B$2:$C126)</f>
-        <v>96.005633081551665</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>341</v>
       </c>
-      <c r="C127">
-        <f ca="1">SUM(B$2:$C127)</f>
-        <v>96.082223225455792</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>325</v>
       </c>
-      <c r="C128">
-        <f ca="1">SUM(B$2:$C128)</f>
-        <v>96.155219696918664</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>324</v>
       </c>
-      <c r="C129">
-        <f ca="1">SUM(B$2:$C129)</f>
-        <v>96.227991563853962</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>324</v>
       </c>
-      <c r="C130">
-        <f ca="1">SUM(B$2:$C130)</f>
-        <v>96.30076343078926</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>310</v>
       </c>
-      <c r="C131">
-        <f ca="1">SUM(B$2:$C131)</f>
-        <v>96.370390834338465</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>307</v>
       </c>
-      <c r="C132">
-        <f ca="1">SUM(B$2:$C132)</f>
-        <v>96.439344424304934</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>300</v>
       </c>
-      <c r="C133">
-        <f ca="1">SUM(B$2:$C133)</f>
-        <v>96.506725782578357</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>293</v>
       </c>
-      <c r="C134">
-        <f ca="1">SUM(B$2:$C134)</f>
-        <v>96.572534909158733</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>293</v>
       </c>
-      <c r="C135">
-        <f ca="1">SUM(B$2:$C135)</f>
-        <v>96.638344035739109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>281</v>
       </c>
-      <c r="C136">
-        <f ca="1">SUM(B$2:$C136)</f>
-        <v>96.701457907988541</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>255</v>
       </c>
-      <c r="C137">
-        <f ca="1">SUM(B$2:$C137)</f>
-        <v>96.758732062520949</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>255</v>
       </c>
-      <c r="C138">
-        <f ca="1">SUM(B$2:$C138)</f>
-        <v>96.816006217053356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>251</v>
       </c>
-      <c r="C139">
-        <f ca="1">SUM(B$2:$C139)</f>
-        <v>96.872381953475454</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>249</v>
       </c>
-      <c r="C140">
-        <f ca="1">SUM(B$2:$C140)</f>
-        <v>96.928308480842389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>249</v>
       </c>
-      <c r="C141">
-        <f ca="1">SUM(B$2:$C141)</f>
-        <v>96.984235008209325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>243</v>
       </c>
-      <c r="C142">
-        <f ca="1">SUM(B$2:$C142)</f>
-        <v>97.038813908410802</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>237</v>
       </c>
-      <c r="C143">
-        <f ca="1">SUM(B$2:$C143)</f>
-        <v>97.092045181446807</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>234</v>
       </c>
-      <c r="C144">
-        <f ca="1">SUM(B$2:$C144)</f>
-        <v>97.144602640900075</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>232</v>
       </c>
-      <c r="C145">
-        <f ca="1">SUM(B$2:$C145)</f>
-        <v>97.196710891298181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>231</v>
       </c>
-      <c r="C146">
-        <f ca="1">SUM(B$2:$C146)</f>
-        <v>97.248594537168714</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>230</v>
       </c>
-      <c r="C147">
-        <f ca="1">SUM(B$2:$C147)</f>
-        <v>97.300253578511672</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>230</v>
       </c>
-      <c r="C148">
-        <f ca="1">SUM(B$2:$C148)</f>
-        <v>97.35191261985463</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>228</v>
       </c>
-      <c r="C149">
-        <f ca="1">SUM(B$2:$C149)</f>
-        <v>97.403122452142426</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>225</v>
       </c>
-      <c r="C150">
-        <f ca="1">SUM(B$2:$C150)</f>
-        <v>97.453658470847486</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>221</v>
       </c>
-      <c r="C151">
-        <f ca="1">SUM(B$2:$C151)</f>
-        <v>97.503296071442236</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>218</v>
       </c>
-      <c r="C152">
-        <f ca="1">SUM(B$2:$C152)</f>
-        <v>97.552259858454249</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>216</v>
       </c>
-      <c r="C153">
-        <f ca="1">SUM(B$2:$C153)</f>
-        <v>97.600774436411115</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>215</v>
       </c>
-      <c r="C154">
-        <f ca="1">SUM(B$2:$C154)</f>
-        <v>97.649064409840406</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>213</v>
       </c>
-      <c r="C155">
-        <f ca="1">SUM(B$2:$C155)</f>
-        <v>97.696905174214535</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>208</v>
       </c>
-      <c r="C156">
-        <f ca="1">SUM(B$2:$C156)</f>
-        <v>97.74362291595078</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>205</v>
       </c>
-      <c r="C157">
-        <f ca="1">SUM(B$2:$C157)</f>
-        <v>97.789666844104289</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>203</v>
       </c>
-      <c r="C158">
-        <f ca="1">SUM(B$2:$C158)</f>
-        <v>97.835261563202636</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>202</v>
       </c>
-      <c r="C159">
-        <f ca="1">SUM(B$2:$C159)</f>
-        <v>97.880631677773408</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>200</v>
       </c>
-      <c r="C160">
-        <f ca="1">SUM(B$2:$C160)</f>
-        <v>97.925552583289019</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>195</v>
       </c>
-      <c r="C161">
-        <f ca="1">SUM(B$2:$C161)</f>
-        <v>97.969350466166745</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>191</v>
       </c>
-      <c r="C162">
-        <f ca="1">SUM(B$2:$C162)</f>
-        <v>98.012249930934161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>190</v>
       </c>
-      <c r="C163">
-        <f ca="1">SUM(B$2:$C163)</f>
-        <v>98.054924791173988</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>181</v>
       </c>
-      <c r="C164">
-        <f ca="1">SUM(B$2:$C164)</f>
-        <v>98.095578210665622</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>178</v>
       </c>
-      <c r="C165">
-        <f ca="1">SUM(B$2:$C165)</f>
-        <v>98.135557816574519</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>172</v>
       </c>
-      <c r="C166">
-        <f ca="1">SUM(B$2:$C166)</f>
-        <v>98.174189795317943</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>171</v>
       </c>
-      <c r="C167">
-        <f ca="1">SUM(B$2:$C167)</f>
-        <v>98.212597169533794</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>169</v>
       </c>
-      <c r="C168">
-        <f ca="1">SUM(B$2:$C168)</f>
-        <v>98.250555334694482</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>167</v>
       </c>
-      <c r="C169">
-        <f ca="1">SUM(B$2:$C169)</f>
-        <v>98.288064290800023</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>162</v>
       </c>
-      <c r="C170">
-        <f ca="1">SUM(B$2:$C170)</f>
-        <v>98.324450224267665</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>160</v>
       </c>
-      <c r="C171">
-        <f ca="1">SUM(B$2:$C171)</f>
-        <v>98.360386948680159</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>159</v>
       </c>
-      <c r="C172">
-        <f ca="1">SUM(B$2:$C172)</f>
-        <v>98.396099068565064</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>153</v>
       </c>
-      <c r="C173">
-        <f ca="1">SUM(B$2:$C173)</f>
-        <v>98.430463561284512</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>149</v>
       </c>
-      <c r="C174">
-        <f ca="1">SUM(B$2:$C174)</f>
-        <v>98.463929635893649</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>149</v>
       </c>
-      <c r="C175">
-        <f ca="1">SUM(B$2:$C175)</f>
-        <v>98.497395710502786</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>147</v>
       </c>
-      <c r="C176">
-        <f ca="1">SUM(B$2:$C176)</f>
-        <v>98.530412576056762</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>146</v>
       </c>
-      <c r="C177">
-        <f ca="1">SUM(B$2:$C177)</f>
-        <v>98.563204837083163</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>141</v>
       </c>
-      <c r="C178">
-        <f ca="1">SUM(B$2:$C178)</f>
-        <v>98.594874075471665</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>138</v>
       </c>
-      <c r="C179">
-        <f ca="1">SUM(B$2:$C179)</f>
-        <v>98.625869500277432</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>137</v>
       </c>
-      <c r="C180">
-        <f ca="1">SUM(B$2:$C180)</f>
-        <v>98.656640320555624</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>134</v>
       </c>
-      <c r="C181">
-        <f ca="1">SUM(B$2:$C181)</f>
-        <v>98.68673732725108</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>133</v>
       </c>
-      <c r="C182">
-        <f ca="1">SUM(B$2:$C182)</f>
-        <v>98.716609729418963</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>126</v>
       </c>
-      <c r="C183">
-        <f ca="1">SUM(B$2:$C183)</f>
-        <v>98.744909899893798</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>124</v>
       </c>
-      <c r="C184">
-        <f ca="1">SUM(B$2:$C184)</f>
-        <v>98.772760861313472</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>124</v>
       </c>
-      <c r="C185">
-        <f ca="1">SUM(B$2:$C185)</f>
-        <v>98.800611822733146</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>120</v>
       </c>
-      <c r="C186">
-        <f ca="1">SUM(B$2:$C186)</f>
-        <v>98.827564366042509</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>117</v>
       </c>
-      <c r="C187">
-        <f ca="1">SUM(B$2:$C187)</f>
-        <v>98.853843095769136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>115</v>
       </c>
-      <c r="C188">
-        <f ca="1">SUM(B$2:$C188)</f>
-        <v>98.879672616440615</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>114</v>
       </c>
-      <c r="C189">
-        <f ca="1">SUM(B$2:$C189)</f>
-        <v>98.90527753258452</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>114</v>
       </c>
-      <c r="C190">
-        <f ca="1">SUM(B$2:$C190)</f>
-        <v>98.930882448728426</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>110</v>
       </c>
-      <c r="C191">
-        <f ca="1">SUM(B$2:$C191)</f>
-        <v>98.955588946762006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>109</v>
       </c>
-      <c r="C192">
-        <f ca="1">SUM(B$2:$C192)</f>
-        <v>98.980070840268013</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>108</v>
       </c>
-      <c r="C193">
-        <f ca="1">SUM(B$2:$C193)</f>
-        <v>99.004328129246446</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>106</v>
       </c>
-      <c r="C194">
-        <f ca="1">SUM(B$2:$C194)</f>
-        <v>99.028136209169716</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>104</v>
       </c>
-      <c r="C195">
-        <f ca="1">SUM(B$2:$C195)</f>
-        <v>99.051495080037839</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>100</v>
       </c>
-      <c r="C196">
-        <f ca="1">SUM(B$2:$C196)</f>
-        <v>99.073955532795651</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>99</v>
       </c>
-      <c r="C197">
-        <f ca="1">SUM(B$2:$C197)</f>
-        <v>99.096191381025875</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>98</v>
       </c>
-      <c r="C198">
-        <f ca="1">SUM(B$2:$C198)</f>
-        <v>99.118202624728525</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>97</v>
       </c>
-      <c r="C199">
-        <f ca="1">SUM(B$2:$C199)</f>
-        <v>99.139989263903601</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>96</v>
       </c>
-      <c r="C200">
-        <f ca="1">SUM(B$2:$C200)</f>
-        <v>99.161551298551089</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>95</v>
       </c>
-      <c r="C201">
-        <f ca="1">SUM(B$2:$C201)</f>
-        <v>99.182888728671003</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>92</v>
       </c>
-      <c r="C202">
-        <f ca="1">SUM(B$2:$C202)</f>
-        <v>99.20355234520818</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>85</v>
       </c>
-      <c r="C203">
-        <f ca="1">SUM(B$2:$C203)</f>
-        <v>99.222643730052312</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>84</v>
       </c>
-      <c r="C204">
-        <f ca="1">SUM(B$2:$C204)</f>
-        <v>99.241510510368869</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>83</v>
       </c>
-      <c r="C205">
-        <f ca="1">SUM(B$2:$C205)</f>
-        <v>99.260152686157852</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>82</v>
       </c>
-      <c r="C206">
-        <f ca="1">SUM(B$2:$C206)</f>
-        <v>99.278570257419247</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>81</v>
       </c>
-      <c r="C207">
-        <f ca="1">SUM(B$2:$C207)</f>
-        <v>99.296763224153068</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>78</v>
       </c>
-      <c r="C208">
-        <f ca="1">SUM(B$2:$C208)</f>
-        <v>99.314282377304153</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>75</v>
       </c>
-      <c r="C209">
-        <f ca="1">SUM(B$2:$C209)</f>
-        <v>99.331127716872501</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>73</v>
       </c>
-      <c r="C210">
-        <f ca="1">SUM(B$2:$C210)</f>
-        <v>99.347523847385702</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>69</v>
       </c>
-      <c r="C211">
-        <f ca="1">SUM(B$2:$C211)</f>
-        <v>99.363021559788592</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>68</v>
       </c>
-      <c r="C212">
-        <f ca="1">SUM(B$2:$C212)</f>
-        <v>99.378294667663894</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>67</v>
       </c>
-      <c r="C213">
-        <f ca="1">SUM(B$2:$C213)</f>
-        <v>99.393343171011622</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>67</v>
       </c>
-      <c r="C214">
-        <f ca="1">SUM(B$2:$C214)</f>
-        <v>99.408391674359351</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>65</v>
       </c>
-      <c r="C215">
-        <f ca="1">SUM(B$2:$C215)</f>
-        <v>99.422990968651931</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>63</v>
       </c>
-      <c r="C216">
-        <f ca="1">SUM(B$2:$C216)</f>
-        <v>99.437141053889349</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>62</v>
       </c>
-      <c r="C217">
-        <f ca="1">SUM(B$2:$C217)</f>
-        <v>99.451066534599192</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>62</v>
       </c>
-      <c r="C218">
-        <f ca="1">SUM(B$2:$C218)</f>
-        <v>99.464992015309036</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>61</v>
       </c>
-      <c r="C219">
-        <f ca="1">SUM(B$2:$C219)</f>
-        <v>99.478692891491292</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>60</v>
       </c>
-      <c r="C220">
-        <f ca="1">SUM(B$2:$C220)</f>
-        <v>99.492169163145974</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>59</v>
       </c>
-      <c r="C221">
-        <f ca="1">SUM(B$2:$C221)</f>
-        <v>99.505420830273081</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>58</v>
       </c>
-      <c r="C222">
-        <f ca="1">SUM(B$2:$C222)</f>
-        <v>99.518447892872615</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>58</v>
       </c>
-      <c r="C223">
-        <f ca="1">SUM(B$2:$C223)</f>
-        <v>99.531474955472149</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>54</v>
       </c>
-      <c r="C224">
-        <f ca="1">SUM(B$2:$C224)</f>
-        <v>99.543603599961358</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>53</v>
       </c>
-      <c r="C225">
-        <f ca="1">SUM(B$2:$C225)</f>
-        <v>99.555507639922993</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>52</v>
       </c>
-      <c r="C226">
-        <f ca="1">SUM(B$2:$C226)</f>
-        <v>99.567187075357054</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>52</v>
       </c>
-      <c r="C227">
-        <f ca="1">SUM(B$2:$C227)</f>
-        <v>99.578866510791116</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>52</v>
       </c>
-      <c r="C228">
-        <f ca="1">SUM(B$2:$C228)</f>
-        <v>99.590545946225177</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>51</v>
       </c>
-      <c r="C229">
-        <f ca="1">SUM(B$2:$C229)</f>
-        <v>99.602000777131664</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>51</v>
       </c>
-      <c r="C230">
-        <f ca="1">SUM(B$2:$C230)</f>
-        <v>99.613455608038151</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>49</v>
       </c>
-      <c r="C231">
-        <f ca="1">SUM(B$2:$C231)</f>
-        <v>99.624461229889476</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>49</v>
       </c>
-      <c r="C232">
-        <f ca="1">SUM(B$2:$C232)</f>
-        <v>99.635466851740802</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
       <c r="B233">
         <v>44</v>
       </c>
-      <c r="C233">
-        <f ca="1">SUM(B$2:$C233)</f>
-        <v>99.645349450954242</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>43</v>
       </c>
-      <c r="C234">
-        <f ca="1">SUM(B$2:$C234)</f>
-        <v>99.655007445640095</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>43</v>
       </c>
-      <c r="C235">
-        <f ca="1">SUM(B$2:$C235)</f>
-        <v>99.664665440325948</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
       <c r="B236">
         <v>43</v>
       </c>
-      <c r="C236">
-        <f ca="1">SUM(B$2:$C236)</f>
-        <v>99.6743234350118</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>41</v>
       </c>
-      <c r="C237">
-        <f ca="1">SUM(B$2:$C237)</f>
-        <v>99.683532220642505</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>40</v>
       </c>
-      <c r="C238">
-        <f ca="1">SUM(B$2:$C238)</f>
-        <v>99.692516401745621</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>39</v>
       </c>
-      <c r="C239">
-        <f ca="1">SUM(B$2:$C239)</f>
-        <v>99.701275978321164</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
       <c r="B240">
         <v>38</v>
       </c>
-      <c r="C240">
-        <f ca="1">SUM(B$2:$C240)</f>
-        <v>99.709810950369132</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>37</v>
       </c>
-      <c r="C241">
-        <f ca="1">SUM(B$2:$C241)</f>
-        <v>99.718121317889526</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>37</v>
       </c>
-      <c r="C242">
-        <f ca="1">SUM(B$2:$C242)</f>
-        <v>99.726431685409921</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
       <c r="B243">
         <v>37</v>
       </c>
-      <c r="C243">
-        <f ca="1">SUM(B$2:$C243)</f>
-        <v>99.734742052930315</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>35</v>
       </c>
-      <c r="C244">
-        <f ca="1">SUM(B$2:$C244)</f>
-        <v>99.742603211395547</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
       <c r="B245">
         <v>35</v>
       </c>
-      <c r="C245">
-        <f ca="1">SUM(B$2:$C245)</f>
-        <v>99.750464369860779</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>34</v>
       </c>
-      <c r="C246">
-        <f ca="1">SUM(B$2:$C246)</f>
-        <v>99.758100923798438</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>32</v>
       </c>
-      <c r="C247">
-        <f ca="1">SUM(B$2:$C247)</f>
-        <v>99.765288268680933</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>32</v>
       </c>
-      <c r="C248">
-        <f ca="1">SUM(B$2:$C248)</f>
-        <v>99.772475613563429</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>31</v>
       </c>
-      <c r="C249">
-        <f ca="1">SUM(B$2:$C249)</f>
-        <v>99.779438353918351</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>29</v>
       </c>
-      <c r="C250">
-        <f ca="1">SUM(B$2:$C250)</f>
-        <v>99.785951885218111</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>29</v>
       </c>
-      <c r="C251">
-        <f ca="1">SUM(B$2:$C251)</f>
-        <v>99.792465416517871</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>29</v>
       </c>
-      <c r="C252">
-        <f ca="1">SUM(B$2:$C252)</f>
-        <v>99.798978947817631</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>27</v>
       </c>
-      <c r="C253">
-        <f ca="1">SUM(B$2:$C253)</f>
-        <v>99.805043270062242</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>27</v>
       </c>
-      <c r="C254">
-        <f ca="1">SUM(B$2:$C254)</f>
-        <v>99.811107592306854</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>27</v>
       </c>
-      <c r="C255">
-        <f ca="1">SUM(B$2:$C255)</f>
-        <v>99.817171914551466</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>27</v>
       </c>
-      <c r="C256">
-        <f ca="1">SUM(B$2:$C256)</f>
-        <v>99.823236236796077</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>27</v>
       </c>
-      <c r="C257">
-        <f ca="1">SUM(B$2:$C257)</f>
-        <v>99.829300559040689</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>26</v>
       </c>
-      <c r="C258">
-        <f ca="1">SUM(B$2:$C258)</f>
-        <v>99.835140276757713</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>26</v>
       </c>
-      <c r="C259">
-        <f ca="1">SUM(B$2:$C259)</f>
-        <v>99.840979994474736</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
       <c r="B260">
         <v>26</v>
       </c>
-      <c r="C260">
-        <f ca="1">SUM(B$2:$C260)</f>
-        <v>99.84681971219176</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>25</v>
       </c>
-      <c r="C261">
-        <f ca="1">SUM(B$2:$C261)</f>
-        <v>99.852434825381209</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
       <c r="B262">
         <v>24</v>
       </c>
-      <c r="C262">
-        <f ca="1">SUM(B$2:$C262)</f>
-        <v>99.857825334043085</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
       <c r="B263">
         <v>24</v>
       </c>
-      <c r="C263">
-        <f ca="1">SUM(B$2:$C263)</f>
-        <v>99.86321584270496</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>24</v>
       </c>
-      <c r="C264">
-        <f ca="1">SUM(B$2:$C264)</f>
-        <v>99.868606351366836</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
       <c r="B265">
         <v>23</v>
       </c>
-      <c r="C265">
-        <f ca="1">SUM(B$2:$C265)</f>
-        <v>99.873772255501137</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>21</v>
       </c>
-      <c r="C266">
-        <f ca="1">SUM(B$2:$C266)</f>
-        <v>99.878488950580277</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>20</v>
       </c>
-      <c r="C267">
-        <f ca="1">SUM(B$2:$C267)</f>
-        <v>99.882981041131842</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>20</v>
       </c>
-      <c r="C268">
-        <f ca="1">SUM(B$2:$C268)</f>
-        <v>99.887473131683407</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
       <c r="B269">
         <v>19</v>
       </c>
-      <c r="C269">
-        <f ca="1">SUM(B$2:$C269)</f>
-        <v>99.891740617707384</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>18</v>
       </c>
-      <c r="C270">
-        <f ca="1">SUM(B$2:$C270)</f>
-        <v>99.895783499203787</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>18</v>
       </c>
-      <c r="C271">
-        <f ca="1">SUM(B$2:$C271)</f>
-        <v>99.89982638070019</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>18</v>
       </c>
-      <c r="C272">
-        <f ca="1">SUM(B$2:$C272)</f>
-        <v>99.903869262196594</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>17</v>
       </c>
-      <c r="C273">
-        <f ca="1">SUM(B$2:$C273)</f>
-        <v>99.907687539165423</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>17</v>
       </c>
-      <c r="C274">
-        <f ca="1">SUM(B$2:$C274)</f>
-        <v>99.911505816134252</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>17</v>
       </c>
-      <c r="C275">
-        <f ca="1">SUM(B$2:$C275)</f>
-        <v>99.915324093103081</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>16</v>
       </c>
-      <c r="C276">
-        <f ca="1">SUM(B$2:$C276)</f>
-        <v>99.918917765544336</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>14</v>
       </c>
-      <c r="C277">
-        <f ca="1">SUM(B$2:$C277)</f>
-        <v>99.922062228930429</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>14</v>
       </c>
-      <c r="C278">
-        <f ca="1">SUM(B$2:$C278)</f>
-        <v>99.925206692316522</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>13</v>
       </c>
-      <c r="C279">
-        <f ca="1">SUM(B$2:$C279)</f>
-        <v>99.928126551175041</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>13</v>
       </c>
-      <c r="C280">
-        <f ca="1">SUM(B$2:$C280)</f>
-        <v>99.931046410033559</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
       <c r="B281">
         <v>13</v>
       </c>
-      <c r="C281">
-        <f ca="1">SUM(B$2:$C281)</f>
-        <v>99.933966268892078</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>13</v>
       </c>
-      <c r="C282">
-        <f ca="1">SUM(B$2:$C282)</f>
-        <v>99.936886127750597</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>12</v>
       </c>
-      <c r="C283">
-        <f ca="1">SUM(B$2:$C283)</f>
-        <v>99.939581382081528</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>12</v>
       </c>
-      <c r="C284">
-        <f ca="1">SUM(B$2:$C284)</f>
-        <v>99.942276636412458</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
       <c r="B285">
         <v>11</v>
       </c>
-      <c r="C285">
-        <f ca="1">SUM(B$2:$C285)</f>
-        <v>99.944747286215815</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>10</v>
       </c>
-      <c r="C286">
-        <f ca="1">SUM(B$2:$C286)</f>
-        <v>99.946993331491598</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>10</v>
       </c>
-      <c r="C287">
-        <f ca="1">SUM(B$2:$C287)</f>
-        <v>99.94923937676738</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>10</v>
       </c>
-      <c r="C288">
-        <f ca="1">SUM(B$2:$C288)</f>
-        <v>99.951485422043163</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
       <c r="B289">
         <v>9</v>
       </c>
-      <c r="C289">
-        <f ca="1">SUM(B$2:$C289)</f>
-        <v>99.953506862791372</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>9</v>
       </c>
-      <c r="C290">
-        <f ca="1">SUM(B$2:$C290)</f>
-        <v>99.95552830353958</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>9</v>
       </c>
-      <c r="C291">
-        <f ca="1">SUM(B$2:$C291)</f>
-        <v>99.957549744287789</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
       <c r="B292">
         <v>9</v>
       </c>
-      <c r="C292">
-        <f ca="1">SUM(B$2:$C292)</f>
-        <v>99.959571185035998</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
       <c r="B293">
         <v>8</v>
       </c>
-      <c r="C293">
-        <f ca="1">SUM(B$2:$C293)</f>
-        <v>99.961368021256618</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294">
         <v>8</v>
       </c>
-      <c r="C294">
-        <f ca="1">SUM(B$2:$C294)</f>
-        <v>99.963164857477238</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
       <c r="B295">
         <v>8</v>
       </c>
-      <c r="C295">
-        <f ca="1">SUM(B$2:$C295)</f>
-        <v>99.964961693697859</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
       <c r="B296">
         <v>8</v>
       </c>
-      <c r="C296">
-        <f ca="1">SUM(B$2:$C296)</f>
-        <v>99.966758529918479</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
       <c r="B297">
         <v>7</v>
       </c>
-      <c r="C297">
-        <f ca="1">SUM(B$2:$C297)</f>
-        <v>99.968330761611526</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
       <c r="B298">
         <v>7</v>
       </c>
-      <c r="C298">
-        <f ca="1">SUM(B$2:$C298)</f>
-        <v>99.969902993304572</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
       <c r="B299">
         <v>7</v>
       </c>
-      <c r="C299">
-        <f ca="1">SUM(B$2:$C299)</f>
-        <v>99.971475224997619</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
       <c r="B300">
         <v>7</v>
       </c>
-      <c r="C300">
-        <f ca="1">SUM(B$2:$C300)</f>
-        <v>99.973047456690665</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>6</v>
       </c>
-      <c r="C301">
-        <f ca="1">SUM(B$2:$C301)</f>
-        <v>99.974395083856137</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
       <c r="B302">
         <v>6</v>
       </c>
-      <c r="C302">
-        <f ca="1">SUM(B$2:$C302)</f>
-        <v>99.97574271102161</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
       <c r="B303">
         <v>6</v>
       </c>
-      <c r="C303">
-        <f ca="1">SUM(B$2:$C303)</f>
-        <v>99.977090338187082</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
       <c r="B304">
         <v>6</v>
       </c>
-      <c r="C304">
-        <f ca="1">SUM(B$2:$C304)</f>
-        <v>99.978437965352555</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
       <c r="B305">
         <v>6</v>
       </c>
-      <c r="C305">
-        <f ca="1">SUM(B$2:$C305)</f>
-        <v>99.979785592518027</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="B306">
         <v>5</v>
       </c>
-      <c r="C306">
-        <f ca="1">SUM(B$2:$C306)</f>
-        <v>99.980908615155911</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
       <c r="B307">
         <v>5</v>
       </c>
-      <c r="C307">
-        <f ca="1">SUM(B$2:$C307)</f>
-        <v>99.982031637793796</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
       <c r="B308">
         <v>5</v>
       </c>
-      <c r="C308">
-        <f ca="1">SUM(B$2:$C308)</f>
-        <v>99.98315466043168</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="B309">
         <v>5</v>
       </c>
-      <c r="C309">
-        <f ca="1">SUM(B$2:$C309)</f>
-        <v>99.984277683069564</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
       <c r="B310">
         <v>5</v>
       </c>
-      <c r="C310">
-        <f ca="1">SUM(B$2:$C310)</f>
-        <v>99.985400705707448</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
       <c r="B311">
         <v>4</v>
       </c>
-      <c r="C311">
-        <f ca="1">SUM(B$2:$C311)</f>
-        <v>99.986299123817759</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
       <c r="B312">
         <v>4</v>
       </c>
-      <c r="C312">
-        <f ca="1">SUM(B$2:$C312)</f>
-        <v>99.987197541928069</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
       <c r="B313">
         <v>4</v>
       </c>
-      <c r="C313">
-        <f ca="1">SUM(B$2:$C313)</f>
-        <v>99.988095960038379</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
       <c r="B314">
         <v>3</v>
       </c>
-      <c r="C314">
-        <f ca="1">SUM(B$2:$C314)</f>
-        <v>99.988769773621115</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="B315">
         <v>3</v>
       </c>
-      <c r="C315">
-        <f ca="1">SUM(B$2:$C315)</f>
-        <v>99.989443587203851</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
       <c r="B316">
         <v>3</v>
       </c>
-      <c r="C316">
-        <f ca="1">SUM(B$2:$C316)</f>
-        <v>99.990117400786588</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
       <c r="B317">
         <v>3</v>
       </c>
-      <c r="C317">
-        <f ca="1">SUM(B$2:$C317)</f>
-        <v>99.990791214369324</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
       <c r="B318">
         <v>3</v>
       </c>
-      <c r="C318">
-        <f ca="1">SUM(B$2:$C318)</f>
-        <v>99.99146502795206</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
-      <c r="C319">
-        <f ca="1">SUM(B$2:$C319)</f>
-        <v>99.992138841534796</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
       <c r="B320">
         <v>3</v>
       </c>
-      <c r="C320">
-        <f ca="1">SUM(B$2:$C320)</f>
-        <v>99.992812655117532</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="B321">
         <v>3</v>
       </c>
-      <c r="C321">
-        <f ca="1">SUM(B$2:$C321)</f>
-        <v>99.993486468700269</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
       <c r="B322">
         <v>3</v>
       </c>
-      <c r="C322">
-        <f ca="1">SUM(B$2:$C322)</f>
-        <v>99.994160282283005</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
       <c r="B323">
         <v>3</v>
       </c>
-      <c r="C323">
-        <f ca="1">SUM(B$2:$C323)</f>
-        <v>99.994834095865741</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="B324">
         <v>3</v>
       </c>
-      <c r="C324">
-        <f ca="1">SUM(B$2:$C324)</f>
-        <v>99.995507909448477</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
-      <c r="C325">
-        <f ca="1">SUM(B$2:$C325)</f>
-        <v>99.99595711850364</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
       <c r="B326">
         <v>2</v>
       </c>
-      <c r="C326">
-        <f ca="1">SUM(B$2:$C326)</f>
-        <v>99.996406327558802</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
       <c r="B327">
         <v>2</v>
       </c>
-      <c r="C327">
-        <f ca="1">SUM(B$2:$C327)</f>
-        <v>99.996855536613964</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
       <c r="B328">
         <v>2</v>
       </c>
-      <c r="C328">
-        <f ca="1">SUM(B$2:$C328)</f>
-        <v>99.997304745669126</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
-      <c r="C329">
-        <f ca="1">SUM(B$2:$C329)</f>
-        <v>99.9975293501967</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
-      <c r="C330">
-        <f ca="1">SUM(B$2:$C330)</f>
-        <v>99.997753954724274</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
-      <c r="C331">
-        <f ca="1">SUM(B$2:$C331)</f>
-        <v>99.997978559251848</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
-      <c r="C332">
-        <f ca="1">SUM(B$2:$C332)</f>
-        <v>99.998203163779422</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
-      <c r="C333">
-        <f ca="1">SUM(B$2:$C333)</f>
-        <v>99.998427768306996</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
       <c r="B334">
         <v>1</v>
       </c>
-      <c r="C334">
-        <f ca="1">SUM(B$2:$C334)</f>
-        <v>99.99865237283457</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
       <c r="B335">
         <v>1</v>
       </c>
-      <c r="C335">
-        <f ca="1">SUM(B$2:$C335)</f>
-        <v>99.998876977362144</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
       <c r="B336">
         <v>1</v>
       </c>
-      <c r="C336">
-        <f ca="1">SUM(B$2:$C336)</f>
-        <v>99.999101581889718</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
-      <c r="C337">
-        <f ca="1">SUM(B$2:$C337)</f>
-        <v>99.999326186417292</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
       <c r="B338">
         <v>1</v>
       </c>
-      <c r="C338">
-        <f ca="1">SUM(B$2:$C338)</f>
-        <v>99.999550790944866</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
-      <c r="C339">
-        <f ca="1">SUM(B$2:$C339)</f>
-        <v>99.99977539547244</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
       <c r="B340">
         <v>1</v>
-      </c>
-      <c r="C340">
-        <f ca="1">SUM(B$2:$C340)</f>
-        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>
